--- a/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC2DC1-57A2-45B8-A002-84F9FFC09D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3ACDB4-6CEF-4B84-8EA4-1F2CF9DDFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="4095" windowWidth="21600" windowHeight="11295" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="6690" yWindow="3795" windowWidth="21510" windowHeight="11295" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -188,13 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mtype / メッセージの種別</t>
-    <rPh sb="14" eb="16">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rpcvers / RPC プロトコルのバージョン(=2)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -300,6 +293,13 @@
   </si>
   <si>
     <t>&lt;- length / メッセージ長 -&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg_type / メッセージの種別</t>
+    <rPh sb="17" eb="19">
+      <t>シュベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -456,14 +456,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,8 +468,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +797,7 @@
   <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AG11"/>
+      <selection activeCell="AH3" sqref="AH3:AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -814,87 +814,87 @@
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
       <c r="AJ1" s="1"/>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11" t="s">
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11" t="s">
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11" t="s">
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="11"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -903,78 +903,78 @@
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="8"/>
+      <c r="C2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="12"/>
       <c r="AJ2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="8"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="12"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1014,8 +1014,8 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="12" t="s">
-        <v>51</v>
+      <c r="AH3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>4</v>
@@ -1054,7 +1054,7 @@
       <c r="BN3" s="5"/>
       <c r="BO3" s="5"/>
       <c r="BP3" s="5"/>
-      <c r="BQ3" s="12" t="s">
+      <c r="BQ3" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1096,7 +1096,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="12"/>
+      <c r="AH4" s="6"/>
       <c r="AJ4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1134,14 +1134,14 @@
       <c r="BN4" s="5"/>
       <c r="BO4" s="5"/>
       <c r="BP4" s="5"/>
-      <c r="BQ4" s="12"/>
+      <c r="BQ4" s="6"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1174,7 +1174,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="12"/>
+      <c r="AH5" s="6"/>
       <c r="AJ5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1212,14 +1212,14 @@
       <c r="BN5" s="5"/>
       <c r="BO5" s="5"/>
       <c r="BP5" s="5"/>
-      <c r="BQ5" s="12"/>
+      <c r="BQ5" s="6"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1252,7 +1252,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="12"/>
+      <c r="AH6" s="6"/>
       <c r="AJ6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1290,14 +1290,14 @@
       <c r="BN6" s="5"/>
       <c r="BO6" s="5"/>
       <c r="BP6" s="5"/>
-      <c r="BQ6" s="12"/>
+      <c r="BQ6" s="6"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1330,7 +1330,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="12"/>
+      <c r="AH7" s="6"/>
       <c r="AJ7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1368,14 +1368,14 @@
       <c r="BN7" s="5"/>
       <c r="BO7" s="5"/>
       <c r="BP7" s="5"/>
-      <c r="BQ7" s="12"/>
+      <c r="BQ7" s="6"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1408,7 +1408,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="12"/>
+      <c r="AH8" s="6"/>
       <c r="AJ8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1446,475 +1446,475 @@
       <c r="BN8" s="5"/>
       <c r="BO8" s="5"/>
       <c r="BP8" s="5"/>
-      <c r="BQ8" s="12"/>
+      <c r="BQ8" s="6"/>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="6"/>
       <c r="AJ9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AK9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="9"/>
-      <c r="AT9" s="9"/>
-      <c r="AU9" s="9"/>
-      <c r="AV9" s="9"/>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="9"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="9"/>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
-      <c r="BG9" s="9"/>
-      <c r="BH9" s="9"/>
-      <c r="BI9" s="9"/>
-      <c r="BJ9" s="9"/>
-      <c r="BK9" s="9"/>
-      <c r="BL9" s="9"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
-      <c r="BO9" s="9"/>
-      <c r="BP9" s="9"/>
-      <c r="BQ9" s="12"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="6"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="6"/>
       <c r="AJ10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AK10" s="10" t="s">
+      <c r="AK10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="10"/>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
-      <c r="BK10" s="10"/>
-      <c r="BL10" s="10"/>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10"/>
-      <c r="BO10" s="10"/>
-      <c r="BP10" s="10"/>
-      <c r="BQ10" s="12"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+      <c r="BQ10" s="6"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="6"/>
       <c r="AJ11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AK11" s="9" t="s">
+      <c r="AK11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="9"/>
-      <c r="BJ11" s="9"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
-      <c r="BO11" s="9"/>
-      <c r="BP11" s="9"/>
-      <c r="BQ11" s="12"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="12"/>
+      <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="6"/>
       <c r="AJ12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AK12" s="10" t="s">
+      <c r="AK12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
-      <c r="BK12" s="10"/>
-      <c r="BL12" s="10"/>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10"/>
-      <c r="BO12" s="10"/>
-      <c r="BP12" s="10"/>
-      <c r="BQ12" s="12"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+      <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="12"/>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="6"/>
       <c r="AJ13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AK13" s="9" t="s">
+      <c r="AK13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="9"/>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9"/>
-      <c r="BL13" s="9"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="9"/>
-      <c r="BO13" s="9"/>
-      <c r="BP13" s="9"/>
-      <c r="BQ13" s="12"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="6"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="6"/>
       <c r="AJ14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK14" s="10" t="s">
+      <c r="AK14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-      <c r="BK14" s="10"/>
-      <c r="BL14" s="10"/>
-      <c r="BM14" s="10"/>
-      <c r="BN14" s="10"/>
-      <c r="BO14" s="10"/>
-      <c r="BP14" s="10"/>
-      <c r="BQ14" s="12"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="8"/>
+      <c r="BQ14" s="6"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -1926,87 +1926,87 @@
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11" t="s">
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="s">
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
       <c r="AJ18" s="1"/>
-      <c r="AK18" s="11" t="s">
+      <c r="AK18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11" t="s">
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11" t="s">
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11" t="s">
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="11"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
@@ -2015,78 +2015,78 @@
       <c r="B19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="8"/>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="12"/>
       <c r="AJ19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AL19" s="6" t="s">
+      <c r="AL19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="7"/>
-      <c r="AU19" s="7"/>
-      <c r="AV19" s="7"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="7"/>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="7"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
-      <c r="BG19" s="7"/>
-      <c r="BH19" s="7"/>
-      <c r="BI19" s="7"/>
-      <c r="BJ19" s="7"/>
-      <c r="BK19" s="7"/>
-      <c r="BL19" s="7"/>
-      <c r="BM19" s="7"/>
-      <c r="BN19" s="7"/>
-      <c r="BO19" s="7"/>
-      <c r="BP19" s="8"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
+      <c r="BM19" s="11"/>
+      <c r="BN19" s="11"/>
+      <c r="BO19" s="11"/>
+      <c r="BP19" s="12"/>
     </row>
     <row r="20" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
@@ -2126,8 +2126,8 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="12" t="s">
-        <v>52</v>
+      <c r="AH20" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="AJ20" s="2" t="s">
         <v>4</v>
@@ -2166,7 +2166,7 @@
       <c r="BN20" s="5"/>
       <c r="BO20" s="5"/>
       <c r="BP20" s="5"/>
-      <c r="BQ20" s="12" t="s">
+      <c r="BQ20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2208,7 +2208,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="12"/>
+      <c r="AH21" s="6"/>
       <c r="AJ21" s="2" t="s">
         <v>5</v>
       </c>
@@ -2246,14 +2246,14 @@
       <c r="BN21" s="5"/>
       <c r="BO21" s="5"/>
       <c r="BP21" s="5"/>
-      <c r="BQ21" s="12"/>
+      <c r="BQ21" s="6"/>
     </row>
     <row r="22" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2286,7 +2286,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="12"/>
+      <c r="AH22" s="6"/>
       <c r="AJ22" s="2" t="s">
         <v>6</v>
       </c>
@@ -2324,170 +2324,170 @@
       <c r="BN22" s="5"/>
       <c r="BO22" s="5"/>
       <c r="BP22" s="5"/>
-      <c r="BQ22" s="12"/>
+      <c r="BQ22" s="6"/>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="12"/>
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="6"/>
       <c r="AJ23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AK23" s="9" t="s">
+      <c r="AK23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="9"/>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
-      <c r="BL23" s="9"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
-      <c r="BO23" s="9"/>
-      <c r="BP23" s="9"/>
-      <c r="BQ23" s="12"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+      <c r="BL23" s="7"/>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="6"/>
     </row>
     <row r="24" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="12"/>
+      <c r="B24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="6"/>
       <c r="AJ24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AK24" s="10" t="s">
+      <c r="AK24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="10"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
-      <c r="BO24" s="10"/>
-      <c r="BP24" s="10"/>
-      <c r="BQ24" s="12"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+      <c r="BQ24" s="6"/>
     </row>
     <row r="25" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2520,7 +2520,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="12"/>
+      <c r="AH25" s="6"/>
       <c r="AJ25" s="2" t="s">
         <v>9</v>
       </c>
@@ -2558,163 +2558,163 @@
       <c r="BN25" s="5"/>
       <c r="BO25" s="5"/>
       <c r="BP25" s="5"/>
-      <c r="BQ25" s="12"/>
+      <c r="BQ25" s="6"/>
     </row>
     <row r="26" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="12"/>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="6"/>
       <c r="AJ26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AK26" s="9" t="s">
+      <c r="AK26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
-      <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
-      <c r="BB26" s="9"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="9"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
-      <c r="BO26" s="9"/>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="12"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="6"/>
     </row>
     <row r="27" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="10"/>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="10"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="12"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="6"/>
       <c r="AJ27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AK27" s="10" t="s">
+      <c r="AK27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
-      <c r="AS27" s="10"/>
-      <c r="AT27" s="10"/>
-      <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="10"/>
-      <c r="AY27" s="10"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
-      <c r="BB27" s="10"/>
-      <c r="BC27" s="10"/>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
-      <c r="BK27" s="10"/>
-      <c r="BL27" s="10"/>
-      <c r="BM27" s="10"/>
-      <c r="BN27" s="10"/>
-      <c r="BO27" s="10"/>
-      <c r="BP27" s="10"/>
-      <c r="BQ27" s="12"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8"/>
+      <c r="AQ27" s="8"/>
+      <c r="AR27" s="8"/>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="8"/>
+      <c r="AW27" s="8"/>
+      <c r="AX27" s="8"/>
+      <c r="AY27" s="8"/>
+      <c r="AZ27" s="8"/>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="8"/>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="8"/>
+      <c r="BE27" s="8"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="8"/>
+      <c r="BH27" s="8"/>
+      <c r="BI27" s="8"/>
+      <c r="BJ27" s="8"/>
+      <c r="BK27" s="8"/>
+      <c r="BL27" s="8"/>
+      <c r="BM27" s="8"/>
+      <c r="BN27" s="8"/>
+      <c r="BO27" s="8"/>
+      <c r="BP27" s="8"/>
+      <c r="BQ27" s="6"/>
     </row>
     <row r="28" spans="1:69" x14ac:dyDescent="0.4">
       <c r="AH28" s="4"/>
@@ -2740,38 +2740,22 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="AH20:AH27"/>
-    <mergeCell ref="B21:AG21"/>
-    <mergeCell ref="B22:AG22"/>
-    <mergeCell ref="B23:AG23"/>
-    <mergeCell ref="B24:AG24"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="B26:AG26"/>
-    <mergeCell ref="B27:AG27"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="C19:AG19"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="AH3:AH14"/>
-    <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:AG7"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B9:AG9"/>
-    <mergeCell ref="B10:AG10"/>
-    <mergeCell ref="B11:AG11"/>
-    <mergeCell ref="B12:AG12"/>
-    <mergeCell ref="B13:AG13"/>
-    <mergeCell ref="B14:AG14"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="C2:AG2"/>
+    <mergeCell ref="AK20:BP20"/>
+    <mergeCell ref="AL19:BP19"/>
+    <mergeCell ref="AK26:BP26"/>
+    <mergeCell ref="AK27:BP27"/>
+    <mergeCell ref="AK21:BP21"/>
+    <mergeCell ref="AK22:BP22"/>
+    <mergeCell ref="AK23:BP23"/>
+    <mergeCell ref="AK24:BP24"/>
+    <mergeCell ref="AK25:BP25"/>
+    <mergeCell ref="AK1:AR1"/>
+    <mergeCell ref="AS1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="BI1:BP1"/>
+    <mergeCell ref="AK4:BP4"/>
+    <mergeCell ref="AK3:BP3"/>
+    <mergeCell ref="AL2:BP2"/>
     <mergeCell ref="BQ3:BQ14"/>
     <mergeCell ref="BQ20:BQ27"/>
     <mergeCell ref="AK10:BP10"/>
@@ -2788,22 +2772,38 @@
     <mergeCell ref="AS18:AZ18"/>
     <mergeCell ref="BA18:BH18"/>
     <mergeCell ref="BI18:BP18"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="AK4:BP4"/>
-    <mergeCell ref="AK3:BP3"/>
-    <mergeCell ref="AL2:BP2"/>
-    <mergeCell ref="AK20:BP20"/>
-    <mergeCell ref="AL19:BP19"/>
-    <mergeCell ref="AK26:BP26"/>
-    <mergeCell ref="AK27:BP27"/>
-    <mergeCell ref="AK21:BP21"/>
-    <mergeCell ref="AK22:BP22"/>
-    <mergeCell ref="AK23:BP23"/>
-    <mergeCell ref="AK24:BP24"/>
-    <mergeCell ref="AK25:BP25"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="C2:AG2"/>
+    <mergeCell ref="B3:AG3"/>
+    <mergeCell ref="AH3:AH14"/>
+    <mergeCell ref="B4:AG4"/>
+    <mergeCell ref="B5:AG5"/>
+    <mergeCell ref="B6:AG6"/>
+    <mergeCell ref="B7:AG7"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="B9:AG9"/>
+    <mergeCell ref="B10:AG10"/>
+    <mergeCell ref="B11:AG11"/>
+    <mergeCell ref="B12:AG12"/>
+    <mergeCell ref="B13:AG13"/>
+    <mergeCell ref="B14:AG14"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AG18"/>
+    <mergeCell ref="C19:AG19"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="AH20:AH27"/>
+    <mergeCell ref="B21:AG21"/>
+    <mergeCell ref="B22:AG22"/>
+    <mergeCell ref="B23:AG23"/>
+    <mergeCell ref="B24:AG24"/>
+    <mergeCell ref="B25:AG25"/>
+    <mergeCell ref="B26:AG26"/>
+    <mergeCell ref="B27:AG27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3ACDB4-6CEF-4B84-8EA4-1F2CF9DDFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7DAF1-DC50-4F6D-9EEB-56C4AD807034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3795" windowWidth="21510" windowHeight="11295" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$AJ$1:$BQ$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>+0</t>
     <phoneticPr fontId="1"/>
@@ -89,59 +89,7 @@
     <t>+44</t>
   </si>
   <si>
-    <t>TRANSACTION IDENTIFIER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MESSAGE TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RPC VERSION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTHENTICATION CREDENTIALS FLAVOR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTHENTICATION VERIFIER FLAVOR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・・・・・・・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTHENTICATION CREDENTIALS BODY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AUTHENTICATION VERIFIER BODY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACCEPT STATUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REPLY STATUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REMOTE PROGRAM VERSION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REMOTE PROGRAM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>REMOTE PROCEDURE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,19 +114,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LENGTH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+48</t>
-  </si>
-  <si>
-    <t>&lt;------- LENGTH -------&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;-------------- LENGTH --------------&gt;</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>xid / トランザクション識別子</t>
@@ -213,40 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>data / データ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cred_flavor / 認証の方法</t>
-    <rPh sb="14" eb="16">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cred_body / 認証の証明書</t>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ショウメイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>verf_body / 認証の結果</t>
-    <rPh sb="12" eb="14">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>reply_stat / 応答ステータス</t>
     <rPh sb="13" eb="15">
       <t>オウトウ</t>
@@ -271,23 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>verf_flavor / アカウント認証の方式</t>
-    <rPh sb="19" eb="21">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ホウシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>verf_body / アカウント情報</t>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;------ length / メッセージの長さ------&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -300,6 +185,74 @@
     <rPh sb="17" eb="19">
       <t>シュベツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data / 引数</t>
+    <rPh sb="7" eb="9">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>results / 戻り値</t>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verf.flavor / アカウント認証の方式</t>
+    <rPh sb="19" eb="21">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verf.body / 認証の結果</t>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cred.flavor / 認証の方法</t>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cred.body / 認証の証明書</t>
+    <rPh sb="12" eb="14">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショウメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verf.body / アカウント情報</t>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -794,11 +747,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ31"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3:AH14"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -806,13 +757,9 @@
     <col min="3" max="9" width="1.25" customWidth="1"/>
     <col min="10" max="33" width="1.625" customWidth="1"/>
     <col min="34" max="34" width="4.625" customWidth="1"/>
-    <col min="36" max="37" width="4.625" customWidth="1"/>
-    <col min="38" max="44" width="1.25" customWidth="1"/>
-    <col min="45" max="68" width="1.625" customWidth="1"/>
-    <col min="69" max="69" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -854,57 +801,16 @@
       <c r="AE1" s="9"/>
       <c r="AF1" s="9"/>
       <c r="AG1" s="9"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-    </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -936,52 +842,13 @@
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="12"/>
-      <c r="AJ2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="12"/>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1015,55 +882,15 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1097,51 +924,13 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="6"/>
-      <c r="AJ4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="6"/>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1175,51 +964,13 @@
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6"/>
-      <c r="AJ5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="6"/>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1253,51 +1004,13 @@
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6"/>
-      <c r="AJ6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="6"/>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1331,51 +1044,13 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6"/>
-      <c r="AJ7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="6"/>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1409,51 +1084,13 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="6"/>
-      <c r="AJ8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
-      <c r="BB8" s="5"/>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
-      <c r="BO8" s="5"/>
-      <c r="BP8" s="5"/>
-      <c r="BQ8" s="6"/>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1487,51 +1124,13 @@
       <c r="AF9" s="7"/>
       <c r="AG9" s="7"/>
       <c r="AH9" s="6"/>
-      <c r="AJ9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
-      <c r="BP9" s="7"/>
-      <c r="BQ9" s="6"/>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1565,51 +1164,13 @@
       <c r="AF10" s="8"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="6"/>
-      <c r="AJ10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="8"/>
-      <c r="BP10" s="8"/>
-      <c r="BQ10" s="6"/>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1643,51 +1204,13 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="6"/>
-      <c r="AJ11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="7"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="7"/>
-      <c r="BE11" s="7"/>
-      <c r="BF11" s="7"/>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="7"/>
-      <c r="BP11" s="7"/>
-      <c r="BQ11" s="6"/>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1721,51 +1244,13 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="6"/>
-      <c r="AJ12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="8"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-      <c r="BO12" s="8"/>
-      <c r="BP12" s="8"/>
-      <c r="BQ12" s="6"/>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1799,51 +1284,13 @@
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
       <c r="AH13" s="6"/>
-      <c r="AJ13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="7"/>
-      <c r="AU13" s="7"/>
-      <c r="AV13" s="7"/>
-      <c r="AW13" s="7"/>
-      <c r="AX13" s="7"/>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="7"/>
-      <c r="BC13" s="7"/>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
-      <c r="BN13" s="7"/>
-      <c r="BO13" s="7"/>
-      <c r="BP13" s="7"/>
-      <c r="BQ13" s="6"/>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1877,54 +1324,13 @@
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
       <c r="AH14" s="6"/>
-      <c r="AJ14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="8"/>
-      <c r="BQ14" s="6"/>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
         <v>0</v>
@@ -1966,57 +1372,16 @@
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
-      <c r="AZ18" s="9"/>
-      <c r="BA18" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB18" s="9"/>
-      <c r="BC18" s="9"/>
-      <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
-      <c r="BF18" s="9"/>
-      <c r="BG18" s="9"/>
-      <c r="BH18" s="9"/>
-      <c r="BI18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ18" s="9"/>
-      <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
-      <c r="BO18" s="9"/>
-      <c r="BP18" s="9"/>
-    </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -2048,52 +1413,13 @@
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
       <c r="AG19" s="12"/>
-      <c r="AJ19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="11"/>
-      <c r="AO19" s="11"/>
-      <c r="AP19" s="11"/>
-      <c r="AQ19" s="11"/>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="11"/>
-      <c r="AT19" s="11"/>
-      <c r="AU19" s="11"/>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="12"/>
-    </row>
-    <row r="20" spans="1:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2127,55 +1453,15 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
-      <c r="BJ20" s="5"/>
-      <c r="BK20" s="5"/>
-      <c r="BL20" s="5"/>
-      <c r="BM20" s="5"/>
-      <c r="BN20" s="5"/>
-      <c r="BO20" s="5"/>
-      <c r="BP20" s="5"/>
-      <c r="BQ20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2209,51 +1495,13 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="6"/>
-      <c r="AJ21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-      <c r="AV21" s="5"/>
-      <c r="AW21" s="5"/>
-      <c r="AX21" s="5"/>
-      <c r="AY21" s="5"/>
-      <c r="AZ21" s="5"/>
-      <c r="BA21" s="5"/>
-      <c r="BB21" s="5"/>
-      <c r="BC21" s="5"/>
-      <c r="BD21" s="5"/>
-      <c r="BE21" s="5"/>
-      <c r="BF21" s="5"/>
-      <c r="BG21" s="5"/>
-      <c r="BH21" s="5"/>
-      <c r="BI21" s="5"/>
-      <c r="BJ21" s="5"/>
-      <c r="BK21" s="5"/>
-      <c r="BL21" s="5"/>
-      <c r="BM21" s="5"/>
-      <c r="BN21" s="5"/>
-      <c r="BO21" s="5"/>
-      <c r="BP21" s="5"/>
-      <c r="BQ21" s="6"/>
-    </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2287,51 +1535,13 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="6"/>
-      <c r="AJ22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="5"/>
-      <c r="BL22" s="5"/>
-      <c r="BM22" s="5"/>
-      <c r="BN22" s="5"/>
-      <c r="BO22" s="5"/>
-      <c r="BP22" s="5"/>
-      <c r="BQ22" s="6"/>
-    </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2365,51 +1575,13 @@
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
       <c r="AH23" s="6"/>
-      <c r="AJ23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
-      <c r="AT23" s="7"/>
-      <c r="AU23" s="7"/>
-      <c r="AV23" s="7"/>
-      <c r="AW23" s="7"/>
-      <c r="AX23" s="7"/>
-      <c r="AY23" s="7"/>
-      <c r="AZ23" s="7"/>
-      <c r="BA23" s="7"/>
-      <c r="BB23" s="7"/>
-      <c r="BC23" s="7"/>
-      <c r="BD23" s="7"/>
-      <c r="BE23" s="7"/>
-      <c r="BF23" s="7"/>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
-      <c r="BI23" s="7"/>
-      <c r="BJ23" s="7"/>
-      <c r="BK23" s="7"/>
-      <c r="BL23" s="7"/>
-      <c r="BM23" s="7"/>
-      <c r="BN23" s="7"/>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
-      <c r="BQ23" s="6"/>
-    </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2443,51 +1615,13 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="6"/>
-      <c r="AJ24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="6"/>
-    </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2521,51 +1655,13 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="6"/>
-      <c r="AJ25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="5"/>
-      <c r="BM25" s="5"/>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
-      <c r="BP25" s="5"/>
-      <c r="BQ25" s="6"/>
-    </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2599,51 +1695,13 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
       <c r="AH26" s="6"/>
-      <c r="AJ26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL26" s="7"/>
-      <c r="AM26" s="7"/>
-      <c r="AN26" s="7"/>
-      <c r="AO26" s="7"/>
-      <c r="AP26" s="7"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="7"/>
-      <c r="AS26" s="7"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="7"/>
-      <c r="AY26" s="7"/>
-      <c r="AZ26" s="7"/>
-      <c r="BA26" s="7"/>
-      <c r="BB26" s="7"/>
-      <c r="BC26" s="7"/>
-      <c r="BD26" s="7"/>
-      <c r="BE26" s="7"/>
-      <c r="BF26" s="7"/>
-      <c r="BG26" s="7"/>
-      <c r="BH26" s="7"/>
-      <c r="BI26" s="7"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
-      <c r="BL26" s="7"/>
-      <c r="BM26" s="7"/>
-      <c r="BN26" s="7"/>
-      <c r="BO26" s="7"/>
-      <c r="BP26" s="7"/>
-      <c r="BQ26" s="6"/>
-    </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2677,101 +1735,29 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="6"/>
-      <c r="AJ27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL27" s="8"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="8"/>
-      <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="8"/>
-      <c r="AZ27" s="8"/>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="8"/>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="8"/>
-      <c r="BE27" s="8"/>
-      <c r="BF27" s="8"/>
-      <c r="BG27" s="8"/>
-      <c r="BH27" s="8"/>
-      <c r="BI27" s="8"/>
-      <c r="BJ27" s="8"/>
-      <c r="BK27" s="8"/>
-      <c r="BL27" s="8"/>
-      <c r="BM27" s="8"/>
-      <c r="BN27" s="8"/>
-      <c r="BO27" s="8"/>
-      <c r="BP27" s="8"/>
-      <c r="BQ27" s="6"/>
-    </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
       <c r="AH28" s="4"/>
-      <c r="BQ28" s="4"/>
-    </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AH29" s="4"/>
-      <c r="AJ29" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ29" s="4"/>
-    </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
       <c r="AH30" s="4"/>
-      <c r="BQ30" s="4"/>
-    </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
       <c r="AH31" s="4"/>
-      <c r="BQ31" s="4"/>
+    </row>
+    <row r="38" spans="38:38" x14ac:dyDescent="0.4">
+      <c r="AL38" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="AK20:BP20"/>
-    <mergeCell ref="AL19:BP19"/>
-    <mergeCell ref="AK26:BP26"/>
-    <mergeCell ref="AK27:BP27"/>
-    <mergeCell ref="AK21:BP21"/>
-    <mergeCell ref="AK22:BP22"/>
-    <mergeCell ref="AK23:BP23"/>
-    <mergeCell ref="AK24:BP24"/>
-    <mergeCell ref="AK25:BP25"/>
-    <mergeCell ref="AK1:AR1"/>
-    <mergeCell ref="AS1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="BI1:BP1"/>
-    <mergeCell ref="AK4:BP4"/>
-    <mergeCell ref="AK3:BP3"/>
-    <mergeCell ref="AL2:BP2"/>
-    <mergeCell ref="BQ3:BQ14"/>
-    <mergeCell ref="BQ20:BQ27"/>
-    <mergeCell ref="AK10:BP10"/>
-    <mergeCell ref="AK11:BP11"/>
-    <mergeCell ref="AK12:BP12"/>
-    <mergeCell ref="AK13:BP13"/>
-    <mergeCell ref="AK14:BP14"/>
-    <mergeCell ref="AK9:BP9"/>
-    <mergeCell ref="AK5:BP5"/>
-    <mergeCell ref="AK6:BP6"/>
-    <mergeCell ref="AK7:BP7"/>
-    <mergeCell ref="AK8:BP8"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AS18:AZ18"/>
-    <mergeCell ref="BA18:BH18"/>
-    <mergeCell ref="BI18:BP18"/>
+  <mergeCells count="32">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="R1:Y1"/>
@@ -2809,7 +1795,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="AK1:BP1 AK18:BP18 AJ19:AJ27 AJ2:AJ14 B1:AG1 A2:A14 A19:A27 B18:AG18" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:AG1 A2:A14 A19:A27 B18:AG18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A7DAF1-DC50-4F6D-9EEB-56C4AD807034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E651CC0A-4924-4DCC-9EC0-3EA8F9C62D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="150" yWindow="1920" windowWidth="15180" windowHeight="11640" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AI$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>+0</t>
     <phoneticPr fontId="1"/>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rpcvers / RPC プロトコルのバージョン(=2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>prog / プログラム番号</t>
     <rPh sb="12" eb="14">
       <t>バンゴウ</t>
@@ -166,25 +162,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>length / メッセージの長さ</t>
-    <rPh sb="15" eb="16">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;------ length / メッセージの長さ------&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;- length / メッセージ長 -&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>msg_type / メッセージの種別</t>
-    <rPh sb="17" eb="19">
-      <t>シュベツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -253,6 +231,35 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>length / メッセージ長</t>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;-------- length / メッセージ長---------&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rpcvers / RPC プロトコルのバージョン（=2）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg_type / メッセージの種別（=0）</t>
+    <rPh sb="17" eb="19">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>msg_type / メッセージの種別（=1）</t>
+    <rPh sb="17" eb="19">
+      <t>シュベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -747,192 +754,117 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="9" width="1.25" customWidth="1"/>
-    <col min="10" max="33" width="1.625" customWidth="1"/>
-    <col min="34" max="34" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="10" width="1.25" customWidth="1"/>
+    <col min="11" max="34" width="1.625" customWidth="1"/>
+    <col min="35" max="35" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9" t="s">
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="12"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="6"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -963,16 +895,18 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="6"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1003,16 +937,16 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="6"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="6"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1043,16 +977,16 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="6"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="6"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1083,96 +1017,96 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="6"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="6"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="6"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="6"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="6"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="6"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1203,16 +1137,16 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="6"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="6"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1243,16 +1177,16 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
-      <c r="AH12" s="6"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="6"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1283,16 +1217,16 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="6"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="6"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1323,187 +1257,189 @@
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
       <c r="AG14" s="8"/>
-      <c r="AH14" s="6"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="9" t="s">
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="6"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="6"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="6"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI18" s="4"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AI19" s="4"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9" t="s">
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9" t="s">
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="12"/>
-    </row>
-    <row r="20" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="D21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="12"/>
+    </row>
+    <row r="22" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="6"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1534,268 +1470,342 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="6"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="6"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="6"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="6"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="6"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="6"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="6"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="6"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="6"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AI30" s="4"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AI31" s="4"/>
+    </row>
+    <row r="38" spans="39:39" x14ac:dyDescent="0.4">
+      <c r="AM38" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="6"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="6"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="6"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="6"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="AH28" s="4"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH29" s="4"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="AH30" s="4"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
-      <c r="AH31" s="4"/>
-    </row>
-    <row r="38" spans="38:38" x14ac:dyDescent="0.4">
-      <c r="AL38" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
-    <mergeCell ref="C2:AG2"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="AH3:AH14"/>
-    <mergeCell ref="B4:AG4"/>
-    <mergeCell ref="B5:AG5"/>
-    <mergeCell ref="B6:AG6"/>
-    <mergeCell ref="B7:AG7"/>
-    <mergeCell ref="B8:AG8"/>
-    <mergeCell ref="B9:AG9"/>
-    <mergeCell ref="B10:AG10"/>
-    <mergeCell ref="B11:AG11"/>
-    <mergeCell ref="B12:AG12"/>
-    <mergeCell ref="B13:AG13"/>
-    <mergeCell ref="B14:AG14"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AG18"/>
-    <mergeCell ref="C19:AG19"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="AH20:AH27"/>
-    <mergeCell ref="B21:AG21"/>
-    <mergeCell ref="B22:AG22"/>
-    <mergeCell ref="B23:AG23"/>
-    <mergeCell ref="B24:AG24"/>
-    <mergeCell ref="B25:AG25"/>
-    <mergeCell ref="B26:AG26"/>
-    <mergeCell ref="B27:AG27"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="AA3:AH3"/>
+    <mergeCell ref="D4:AH4"/>
+    <mergeCell ref="C5:AH5"/>
+    <mergeCell ref="AI5:AI16"/>
+    <mergeCell ref="C6:AH6"/>
+    <mergeCell ref="C7:AH7"/>
+    <mergeCell ref="C8:AH8"/>
+    <mergeCell ref="C9:AH9"/>
+    <mergeCell ref="C10:AH10"/>
+    <mergeCell ref="C11:AH11"/>
+    <mergeCell ref="C12:AH12"/>
+    <mergeCell ref="C13:AH13"/>
+    <mergeCell ref="C14:AH14"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="C16:AH16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="D21:AH21"/>
+    <mergeCell ref="C22:AH22"/>
+    <mergeCell ref="AI22:AI29"/>
+    <mergeCell ref="C23:AH23"/>
+    <mergeCell ref="C24:AH24"/>
+    <mergeCell ref="C25:AH25"/>
+    <mergeCell ref="C26:AH26"/>
+    <mergeCell ref="C27:AH27"/>
+    <mergeCell ref="C28:AH28"/>
+    <mergeCell ref="C29:AH29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:AG1 A2:A14 A19:A27 B18:AG18" numberStoredAsText="1"/>
+    <ignoredError sqref="C3:AH3 B4:B16 B21:B29 C20:AH20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
+++ b/20230215_VXI-11 通信の概要/360_RPC_HeaderFormat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E651CC0A-4924-4DCC-9EC0-3EA8F9C62D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E041B9-3369-44EC-83C7-4817E98CC24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1920" windowWidth="15180" windowHeight="11640" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -292,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -350,7 +350,31 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -359,9 +383,22 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -371,6 +408,21 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -386,9 +438,202 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -397,7 +642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,34 +652,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,8 +1052,8 @@
   </sheetPr>
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -774,95 +1070,95 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9" t="s">
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="14"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="5"/>
@@ -895,8 +1191,8 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="6" t="s">
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -904,7 +1200,7 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="5"/>
@@ -937,14 +1233,14 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="6"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="9"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="5"/>
@@ -977,14 +1273,14 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="6"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="9"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5"/>
@@ -1017,14 +1313,14 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="6"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5"/>
@@ -1057,14 +1353,14 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="6"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="9"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5"/>
@@ -1097,14 +1393,14 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="6"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="9"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="7"/>
@@ -1137,14 +1433,14 @@
       <c r="AE11" s="7"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="6"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="9"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="8"/>
@@ -1177,14 +1473,14 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="6"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="9"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="7"/>
@@ -1217,87 +1513,87 @@
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
       <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="6"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="9"/>
+    </row>
+    <row r="14" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="6"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="9"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
       <c r="AI15" s="6"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
@@ -1344,100 +1640,100 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="AI18" s="4"/>
+      <c r="AI18" s="3"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AI19" s="4"/>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AI19" s="3"/>
+    </row>
+    <row r="20" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9" t="s">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="14"/>
     </row>
     <row r="22" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="5"/>
@@ -1470,8 +1766,8 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="6" t="s">
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1479,7 +1775,7 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="5"/>
@@ -1512,14 +1808,14 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="6"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="5"/>
@@ -1552,14 +1848,14 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="6"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="9"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="7"/>
@@ -1592,14 +1888,14 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="6"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="9"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="8"/>
@@ -1632,87 +1928,87 @@
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="6"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="9"/>
+    </row>
+    <row r="27" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="6"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="9"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="29"/>
       <c r="AI28" s="6"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.4">
@@ -1756,10 +2052,10 @@
       <c r="AI29" s="6"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AI30" s="4"/>
+      <c r="AI30" s="3"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.4">
-      <c r="AI31" s="4"/>
+      <c r="AI31" s="3"/>
     </row>
     <row r="38" spans="39:39" x14ac:dyDescent="0.4">
       <c r="AM38" t="s">
@@ -1768,11 +2064,20 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="AA3:AH3"/>
-    <mergeCell ref="D4:AH4"/>
+    <mergeCell ref="C22:AH22"/>
+    <mergeCell ref="AI22:AI29"/>
+    <mergeCell ref="C23:AH23"/>
+    <mergeCell ref="C24:AH24"/>
+    <mergeCell ref="C25:AH25"/>
+    <mergeCell ref="C26:AH26"/>
+    <mergeCell ref="C27:AH27"/>
+    <mergeCell ref="C28:AH28"/>
+    <mergeCell ref="C29:AH29"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="D21:AH21"/>
     <mergeCell ref="C5:AH5"/>
     <mergeCell ref="AI5:AI16"/>
     <mergeCell ref="C6:AH6"/>
@@ -1786,20 +2091,11 @@
     <mergeCell ref="C14:AH14"/>
     <mergeCell ref="C15:AH15"/>
     <mergeCell ref="C16:AH16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="D21:AH21"/>
-    <mergeCell ref="C22:AH22"/>
-    <mergeCell ref="AI22:AI29"/>
-    <mergeCell ref="C23:AH23"/>
-    <mergeCell ref="C24:AH24"/>
-    <mergeCell ref="C25:AH25"/>
-    <mergeCell ref="C26:AH26"/>
-    <mergeCell ref="C27:AH27"/>
-    <mergeCell ref="C28:AH28"/>
-    <mergeCell ref="C29:AH29"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="AA3:AH3"/>
+    <mergeCell ref="D4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
